--- a/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_1_site_202204.xlsx
+++ b/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_1_site_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="279">
   <si>
     <t>type</t>
   </si>
@@ -406,409 +406,424 @@
     <t>Man</t>
   </si>
   <si>
+    <t>M.Bahiakro</t>
+  </si>
+  <si>
+    <t>M.Bengue</t>
+  </si>
+  <si>
+    <t>Ouangolodougou</t>
+  </si>
+  <si>
+    <t>Ouaninou</t>
+  </si>
+  <si>
+    <t>Sinementiali</t>
+  </si>
+  <si>
+    <t>Tengrela</t>
+  </si>
+  <si>
+    <t>Touba</t>
+  </si>
+  <si>
+    <t>Site sentinelle</t>
+  </si>
+  <si>
+    <t>Sentinel site</t>
+  </si>
+  <si>
+    <t>Site sentinel</t>
+  </si>
+  <si>
+    <t>Site de contrôle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control site </t>
+  </si>
+  <si>
+    <t>Ourene</t>
+  </si>
+  <si>
+    <t>Secretaire</t>
+  </si>
+  <si>
+    <t>Assandre N.Drikro</t>
+  </si>
+  <si>
+    <t>Nimbo Village</t>
+  </si>
+  <si>
+    <t>Baya</t>
+  </si>
+  <si>
+    <t>Bolondo</t>
+  </si>
+  <si>
+    <t>Allaba</t>
+  </si>
+  <si>
+    <t>Mopoyem</t>
+  </si>
+  <si>
+    <t>Doueuleu</t>
+  </si>
+  <si>
+    <t>Sin Houye</t>
+  </si>
+  <si>
+    <t>Kapreme</t>
+  </si>
+  <si>
+    <t>Pleuro</t>
+  </si>
+  <si>
+    <t>Lamekaha1</t>
+  </si>
+  <si>
+    <t>Lanviara</t>
+  </si>
+  <si>
+    <t>Damahira</t>
+  </si>
+  <si>
+    <t>Kalakala</t>
+  </si>
+  <si>
+    <t>Blaouara</t>
+  </si>
+  <si>
+    <t>Nahouokaha2</t>
+  </si>
+  <si>
+    <t>Niofoin</t>
+  </si>
+  <si>
+    <t>Sirasso</t>
+  </si>
+  <si>
+    <t>Badala</t>
+  </si>
+  <si>
+    <t>Kontiguisso</t>
+  </si>
+  <si>
+    <t>Singo</t>
+  </si>
+  <si>
+    <t>Tinasso</t>
+  </si>
+  <si>
+    <t>Dioulabougou</t>
+  </si>
+  <si>
+    <t>Goziogouine1</t>
+  </si>
+  <si>
+    <t>Konankro Et Camp</t>
+  </si>
+  <si>
+    <t>Yerakro</t>
+  </si>
+  <si>
+    <t>N.Dienkaha</t>
+  </si>
+  <si>
+    <t>Tiolo1</t>
+  </si>
+  <si>
+    <t>Satolo</t>
+  </si>
+  <si>
+    <t>Zanakaha</t>
+  </si>
+  <si>
+    <t>Machedougou</t>
+  </si>
+  <si>
+    <t>Pkoh3</t>
+  </si>
+  <si>
+    <t>Balekaha</t>
+  </si>
+  <si>
+    <t>Namongovogo</t>
+  </si>
+  <si>
+    <t>M.Bele</t>
+  </si>
+  <si>
+    <t>Papara</t>
+  </si>
+  <si>
+    <t>Fena2</t>
+  </si>
+  <si>
+    <t>Sogbeni</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>code_site</t>
+  </si>
+  <si>
+    <t>code_site_2</t>
+  </si>
+  <si>
+    <t>Kontiguisso (101)</t>
+  </si>
+  <si>
+    <t>Pkoh3 (102)</t>
+  </si>
+  <si>
+    <t>Sogbeni (103)</t>
+  </si>
+  <si>
+    <t>Baya (104)</t>
+  </si>
+  <si>
+    <t>Tinasso (105)</t>
+  </si>
+  <si>
+    <t>M.Bele (106)</t>
+  </si>
+  <si>
+    <t>Assandre N.Drikro (107)</t>
+  </si>
+  <si>
+    <t>Mopoyem (108)</t>
+  </si>
+  <si>
+    <t>Yerakro (109)</t>
+  </si>
+  <si>
+    <t>Kapreme (110)</t>
+  </si>
+  <si>
+    <t>Blaouara (111)</t>
+  </si>
+  <si>
+    <t>Sirasso (112)</t>
+  </si>
+  <si>
+    <t>Tiolo1 (113)</t>
+  </si>
+  <si>
+    <t>Balekaha (114)</t>
+  </si>
+  <si>
+    <t>Lanviara (115)</t>
+  </si>
+  <si>
+    <t>Damahira (116)</t>
+  </si>
+  <si>
+    <t>Satolo (117)</t>
+  </si>
+  <si>
+    <t>Ourene (118)</t>
+  </si>
+  <si>
+    <t>Doueuleu (119)</t>
+  </si>
+  <si>
+    <t>Goziogouine1 (120)</t>
+  </si>
+  <si>
+    <t>Badala (121)</t>
+  </si>
+  <si>
+    <t>Machedougou (122)</t>
+  </si>
+  <si>
+    <t>Fena2 (123)</t>
+  </si>
+  <si>
+    <t>Bolondo (124)</t>
+  </si>
+  <si>
+    <t>Singo (125)</t>
+  </si>
+  <si>
+    <t>Papara (126)</t>
+  </si>
+  <si>
+    <t>Nimbo Village (127)</t>
+  </si>
+  <si>
+    <t>Allaba (128)</t>
+  </si>
+  <si>
+    <t>Konankro Et Camp (129)</t>
+  </si>
+  <si>
+    <t>Pleuro (130)</t>
+  </si>
+  <si>
+    <t>Nahouokaha2 (131)</t>
+  </si>
+  <si>
+    <t>Niofoin (132)</t>
+  </si>
+  <si>
+    <t>N.Dienkaha (133)</t>
+  </si>
+  <si>
+    <t>Namongovogo (134)</t>
+  </si>
+  <si>
+    <t>Lamekaha1 (135)</t>
+  </si>
+  <si>
+    <t>Kalakala (136)</t>
+  </si>
+  <si>
+    <t>Zanakaha (137)</t>
+  </si>
+  <si>
+    <t>Secretaire (138)</t>
+  </si>
+  <si>
+    <t>Sin Houye (139)</t>
+  </si>
+  <si>
+    <t>Dioulabougou (140)</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_choice_duplicates </t>
+  </si>
+  <si>
+    <t>(Avr 2022) 1. Côte d'Ivoire - Pre TAS FL Formulaire Site</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_1_site_202204</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>REGION SANITAIRE</t>
+  </si>
+  <si>
+    <t>DISTRICTS SANITAIRES</t>
+  </si>
+  <si>
+    <t>CENTRE DE SANTE</t>
+  </si>
+  <si>
+    <t>NOM SITE</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>codeID</t>
+  </si>
+  <si>
+    <t>Csu Koro</t>
+  </si>
+  <si>
+    <t>Csr Santa</t>
+  </si>
+  <si>
+    <t>Csr Bakandesso</t>
+  </si>
+  <si>
+    <t>Assandre N’Drikro</t>
+  </si>
+  <si>
+    <t>Csr Baya</t>
+  </si>
+  <si>
+    <t>Dr N’Deou</t>
+  </si>
+  <si>
+    <t>Dr Neguepie</t>
+  </si>
+  <si>
+    <t>M’Bele</t>
+  </si>
+  <si>
+    <t>Csr Tieple</t>
+  </si>
+  <si>
+    <t>Csr Boubouri</t>
+  </si>
+  <si>
     <t>M'Bahiakro</t>
   </si>
   <si>
+    <t>Hg M’Bahiakro</t>
+  </si>
+  <si>
+    <t>Dr Nerkene</t>
+  </si>
+  <si>
+    <t>Dr Nangasseregue</t>
+  </si>
+  <si>
+    <t>Csu Sirasso</t>
+  </si>
+  <si>
     <t>M'Bengue</t>
   </si>
   <si>
-    <t>Ouangolodougou</t>
-  </si>
-  <si>
-    <t>Ouaninou</t>
-  </si>
-  <si>
-    <t>Sinementiali</t>
-  </si>
-  <si>
-    <t>Tengrela</t>
-  </si>
-  <si>
-    <t>Touba</t>
-  </si>
-  <si>
-    <t>Site sentinelle</t>
-  </si>
-  <si>
-    <t>Sentinel site</t>
-  </si>
-  <si>
-    <t>Site sentinel</t>
-  </si>
-  <si>
-    <t>Site de contrôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control site </t>
-  </si>
-  <si>
-    <t>Ourene</t>
-  </si>
-  <si>
-    <t>Secretaire</t>
-  </si>
-  <si>
-    <t>Assandre N’Drikro</t>
-  </si>
-  <si>
-    <t>Nimbo Village</t>
-  </si>
-  <si>
-    <t>Baya</t>
-  </si>
-  <si>
-    <t>Bolondo</t>
-  </si>
-  <si>
-    <t>Allaba</t>
-  </si>
-  <si>
-    <t>Mopoyem</t>
-  </si>
-  <si>
-    <t>Doueuleu</t>
-  </si>
-  <si>
-    <t>Sin Houye</t>
-  </si>
-  <si>
-    <t>Kapreme</t>
-  </si>
-  <si>
-    <t>Pleuro</t>
-  </si>
-  <si>
-    <t>Lamekaha1</t>
-  </si>
-  <si>
-    <t>Lanviara</t>
-  </si>
-  <si>
-    <t>Damahira</t>
-  </si>
-  <si>
-    <t>Kalakala</t>
-  </si>
-  <si>
-    <t>Blaouara</t>
-  </si>
-  <si>
-    <t>Nahouokaha2</t>
-  </si>
-  <si>
-    <t>Niofoin</t>
-  </si>
-  <si>
-    <t>Sirasso</t>
-  </si>
-  <si>
-    <t>Badala</t>
-  </si>
-  <si>
-    <t>Kontiguisso</t>
-  </si>
-  <si>
-    <t>Singo</t>
-  </si>
-  <si>
-    <t>Tinasso</t>
-  </si>
-  <si>
-    <t>Dioulabougou</t>
-  </si>
-  <si>
-    <t>Goziogouine1</t>
-  </si>
-  <si>
-    <t>Konankro Et Camp</t>
-  </si>
-  <si>
-    <t>Yerakro</t>
+    <t>Csr Masseguere</t>
+  </si>
+  <si>
+    <t>Csus Pmi</t>
+  </si>
+  <si>
+    <t>Csu Sikolo</t>
+  </si>
+  <si>
+    <t>Csu Nielle</t>
+  </si>
+  <si>
+    <t>Logouale</t>
+  </si>
+  <si>
+    <t>Csr Mohambosso</t>
+  </si>
+  <si>
+    <t>Csr Koonan</t>
+  </si>
+  <si>
+    <t>Csr Ouebasso</t>
+  </si>
+  <si>
+    <t>Ganaoni</t>
+  </si>
+  <si>
+    <t>Csr Singo</t>
+  </si>
+  <si>
+    <t>Csu Papara</t>
+  </si>
+  <si>
+    <t>Csu Nimbo</t>
+  </si>
+  <si>
+    <t>Csr N'Gatty</t>
+  </si>
+  <si>
+    <t>Csr Dm Akpoueboue</t>
   </si>
   <si>
     <t>N'Dienkaha</t>
-  </si>
-  <si>
-    <t>Tiolo1</t>
-  </si>
-  <si>
-    <t>Satolo</t>
-  </si>
-  <si>
-    <t>Zanakaha</t>
-  </si>
-  <si>
-    <t>Machedougou</t>
-  </si>
-  <si>
-    <t>Pkoh3</t>
-  </si>
-  <si>
-    <t>Balekaha</t>
-  </si>
-  <si>
-    <t>Namongovogo</t>
-  </si>
-  <si>
-    <t>M’Bele</t>
-  </si>
-  <si>
-    <t>Papara</t>
-  </si>
-  <si>
-    <t>Fena2</t>
-  </si>
-  <si>
-    <t>Sogbeni</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>code_site</t>
-  </si>
-  <si>
-    <t>code_site_2</t>
-  </si>
-  <si>
-    <t>Kontiguisso (101)</t>
-  </si>
-  <si>
-    <t>Pkoh3 (102)</t>
-  </si>
-  <si>
-    <t>Sogbeni (103)</t>
-  </si>
-  <si>
-    <t>Baya (104)</t>
-  </si>
-  <si>
-    <t>Tinasso (105)</t>
-  </si>
-  <si>
-    <t>M’Bele (106)</t>
-  </si>
-  <si>
-    <t>Assandre N’Drikro (107)</t>
-  </si>
-  <si>
-    <t>Mopoyem (108)</t>
-  </si>
-  <si>
-    <t>Yerakro (109)</t>
-  </si>
-  <si>
-    <t>Kapreme (110)</t>
-  </si>
-  <si>
-    <t>Blaouara (111)</t>
-  </si>
-  <si>
-    <t>Sirasso (112)</t>
-  </si>
-  <si>
-    <t>Tiolo1 (113)</t>
-  </si>
-  <si>
-    <t>Balekaha (114)</t>
-  </si>
-  <si>
-    <t>Lanviara (115)</t>
-  </si>
-  <si>
-    <t>Damahira (116)</t>
-  </si>
-  <si>
-    <t>Satolo (117)</t>
-  </si>
-  <si>
-    <t>Ourene (118)</t>
-  </si>
-  <si>
-    <t>Doueuleu (119)</t>
-  </si>
-  <si>
-    <t>Goziogouine1 (120)</t>
-  </si>
-  <si>
-    <t>Badala (121)</t>
-  </si>
-  <si>
-    <t>Machedougou (122)</t>
-  </si>
-  <si>
-    <t>Fena2 (123)</t>
-  </si>
-  <si>
-    <t>Bolondo (124)</t>
-  </si>
-  <si>
-    <t>Singo (125)</t>
-  </si>
-  <si>
-    <t>Papara (126)</t>
-  </si>
-  <si>
-    <t>Nimbo Village (127)</t>
-  </si>
-  <si>
-    <t>Allaba (128)</t>
-  </si>
-  <si>
-    <t>Konankro Et Camp (129)</t>
-  </si>
-  <si>
-    <t>Pleuro (130)</t>
-  </si>
-  <si>
-    <t>Nahouokaha2 (131)</t>
-  </si>
-  <si>
-    <t>Niofoin (132)</t>
-  </si>
-  <si>
-    <t>N'Dienkaha (133)</t>
-  </si>
-  <si>
-    <t>Namongovogo (134)</t>
-  </si>
-  <si>
-    <t>Lamekaha1 (135)</t>
-  </si>
-  <si>
-    <t>Kalakala (136)</t>
-  </si>
-  <si>
-    <t>Zanakaha (137)</t>
-  </si>
-  <si>
-    <t>Secretaire (138)</t>
-  </si>
-  <si>
-    <t>Sin Houye (139)</t>
-  </si>
-  <si>
-    <t>Dioulabougou (140)</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_choice_duplicates </t>
-  </si>
-  <si>
-    <t>(Avr 2022) 1. Côte d'Ivoire - Pre TAS FL Formulaire Site</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_1_site_202204</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>REGION SANITAIRE</t>
-  </si>
-  <si>
-    <t>DISTRICTS SANITAIRES</t>
-  </si>
-  <si>
-    <t>CENTRE DE SANTE</t>
-  </si>
-  <si>
-    <t>NOM SITE</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>codeID</t>
-  </si>
-  <si>
-    <t>Csu Koro</t>
-  </si>
-  <si>
-    <t>Csr Santa</t>
-  </si>
-  <si>
-    <t>Csr Bakandesso</t>
-  </si>
-  <si>
-    <t>Csr Baya</t>
-  </si>
-  <si>
-    <t>Dr N’Deou</t>
-  </si>
-  <si>
-    <t>Dr Neguepie</t>
-  </si>
-  <si>
-    <t>Csr Tieple</t>
-  </si>
-  <si>
-    <t>Csr Boubouri</t>
-  </si>
-  <si>
-    <t>Hg M’Bahiakro</t>
-  </si>
-  <si>
-    <t>Dr Nerkene</t>
-  </si>
-  <si>
-    <t>Dr Nangasseregue</t>
-  </si>
-  <si>
-    <t>Csu Sirasso</t>
-  </si>
-  <si>
-    <t>Csr Masseguere</t>
-  </si>
-  <si>
-    <t>Csus Pmi</t>
-  </si>
-  <si>
-    <t>Csu Sikolo</t>
-  </si>
-  <si>
-    <t>Csu Nielle</t>
-  </si>
-  <si>
-    <t>Logouale</t>
-  </si>
-  <si>
-    <t>Csr Mohambosso</t>
-  </si>
-  <si>
-    <t>Csr Koonan</t>
-  </si>
-  <si>
-    <t>Csr Ouebasso</t>
-  </si>
-  <si>
-    <t>Ganaoni</t>
-  </si>
-  <si>
-    <t>Csr Singo</t>
-  </si>
-  <si>
-    <t>Csu Papara</t>
-  </si>
-  <si>
-    <t>Csu Nimbo</t>
-  </si>
-  <si>
-    <t>Csr N'Gatty</t>
-  </si>
-  <si>
-    <t>Csr Dm Akpoueboue</t>
   </si>
   <si>
     <t>Hopital General</t>
@@ -849,12 +864,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -903,13 +918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -947,6 +955,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -954,9 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,9 +985,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,29 +1024,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,14 +1032,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,14 +1054,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,13 +1079,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,19 +1105,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,31 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,25 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,13 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,13 +1261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,43 +1285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,21 +1373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1392,8 +1385,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,6 +1413,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,164 +1470,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1660,23 +1668,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2037,52 +2038,52 @@
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="1" ht="18" spans="1:16">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2247,7 +2248,7 @@
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2262,7 +2263,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="17"/>
@@ -2398,7 +2399,7 @@
       <c r="A14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2426,7 +2427,7 @@
       <c r="A15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2452,17 +2453,17 @@
       <c r="A16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="21"/>
       <c r="M16" s="17" t="s">
         <v>25</v>
       </c>
@@ -2471,19 +2472,19 @@
       <c r="A17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>81</v>
       </c>
       <c r="K17" s="18" t="s">
@@ -2497,67 +2498,67 @@
       <c r="A18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="21"/>
       <c r="K18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="23"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" s="15" customFormat="1" spans="1:11">
       <c r="A19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="21"/>
       <c r="K19" s="18"/>
     </row>
     <row r="20" s="15" customFormat="1" spans="1:11">
       <c r="A20" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" s="15" customFormat="1" spans="1:11">
       <c r="A21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="K21" s="18"/>
     </row>
   </sheetData>
@@ -2572,10 +2573,10 @@
   <sheetPr/>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD200"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3142,7 +3143,7 @@
       <c r="E34" s="18"/>
     </row>
     <row r="35" s="16" customFormat="1" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3160,7 +3161,7 @@
       <c r="A36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6593,7 +6594,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6858,7 +6859,7 @@
         <v>117</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>116</v>
@@ -6884,7 +6885,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>144</v>
@@ -6935,7 +6936,7 @@
         <v>126</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>163</v>
@@ -6986,10 +6987,10 @@
         <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>135</v>
@@ -7037,10 +7038,10 @@
         <v>116</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>135</v>
@@ -7088,7 +7089,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>147</v>
@@ -7136,10 +7137,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>167</v>
@@ -7187,7 +7188,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>150</v>
@@ -7235,7 +7236,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>156</v>
@@ -7283,7 +7284,7 @@
         <v>124</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>159</v>
@@ -7328,10 +7329,10 @@
         <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>169</v>
@@ -7398,7 +7399,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>153</v>
@@ -7427,7 +7428,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>153</v>
@@ -7446,7 +7447,7 @@
         <v>112</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>154</v>
@@ -7475,7 +7476,7 @@
         <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>154</v>
@@ -7523,7 +7524,7 @@
         <v>130</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>170</v>
@@ -7667,7 +7668,7 @@
         <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>165</v>
@@ -7715,7 +7716,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>160</v>
@@ -7757,7 +7758,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>172</v>
@@ -7799,7 +7800,7 @@
         <v>134</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>178</v>
@@ -7841,7 +7842,7 @@
         <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>145</v>
@@ -7883,7 +7884,7 @@
         <v>126</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>162</v>
@@ -7925,7 +7926,7 @@
         <v>133</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>177</v>
@@ -7967,7 +7968,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>143</v>
@@ -7986,13 +7987,13 @@
         <v>166</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>138</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="V28" s="9" t="s">
         <v>138</v>
@@ -8009,7 +8010,7 @@
         <v>118</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>146</v>
@@ -8028,13 +8029,13 @@
         <v>167</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="S29" s="9" t="s">
         <v>135</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="V29" s="9" t="s">
         <v>135</v>
@@ -8048,10 +8049,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>166</v>
@@ -8067,16 +8068,16 @@
         <v>Konankro Et Camp (129)</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>138</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="V30" s="9" t="s">
         <v>138</v>
@@ -8093,7 +8094,7 @@
         <v>120</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>151</v>
@@ -8112,13 +8113,13 @@
         <v>169</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="S31" s="9" t="s">
         <v>135</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="V31" s="9" t="s">
         <v>135</v>
@@ -8135,7 +8136,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>157</v>
@@ -8177,7 +8178,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>158</v>
@@ -8216,13 +8217,13 @@
         <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>138</v>
@@ -8261,7 +8262,7 @@
         <v>132</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>175</v>
@@ -8303,7 +8304,7 @@
         <v>121</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>152</v>
@@ -8345,7 +8346,7 @@
         <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>155</v>
@@ -8387,7 +8388,7 @@
         <v>130</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>171</v>
@@ -8403,7 +8404,7 @@
         <v>Zanakaha (137)</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>133</v>
@@ -8429,7 +8430,7 @@
         <v>115</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>141</v>
@@ -8471,7 +8472,7 @@
         <v>119</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>149</v>
@@ -8513,7 +8514,7 @@
         <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>164</v>
